--- a/data/trans_dic/P62A$jubilacion-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9110701532420429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5630911475269619</v>
+        <v>0.563091147526962</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3728859708891244</v>
@@ -685,7 +685,7 @@
         <v>0.3919465602765825</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.255326564375943</v>
+        <v>0.2553265643759431</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6557578165518794</v>
@@ -697,7 +697,7 @@
         <v>0.6560029456386901</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3902267521955187</v>
+        <v>0.3902267521955188</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8751184285025332</v>
+        <v>0.8743258898521908</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8075105434758886</v>
+        <v>0.8091496547495219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8824128378909621</v>
+        <v>0.8829185611941309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5155262737528261</v>
+        <v>0.5167047086047266</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3289701295653207</v>
+        <v>0.3304281056077731</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3318689576179912</v>
+        <v>0.3294387644359382</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3455684731716315</v>
+        <v>0.34276398098375</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2246521513224052</v>
+        <v>0.2224649131234986</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6218789743418551</v>
+        <v>0.6243256012175855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5790902936474739</v>
+        <v>0.5794537483902014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6223970325356954</v>
+        <v>0.6231827998410651</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3600097040462705</v>
+        <v>0.364526968642402</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9287131598399032</v>
+        <v>0.9268626519893466</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8714899782097758</v>
+        <v>0.8737513910651282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9364732439576063</v>
+        <v>0.9340507640178786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6116582912509911</v>
+        <v>0.6156870307780933</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4196776631668115</v>
+        <v>0.420783953280034</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4171244474818696</v>
+        <v>0.4127651964123664</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4497505820039497</v>
+        <v>0.4447254313337262</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2899173426339909</v>
+        <v>0.2914136735000021</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6872635433561457</v>
+        <v>0.6847104709732725</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6412178295025344</v>
+        <v>0.6395417273948064</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.691048778362975</v>
+        <v>0.6897033903065261</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4194154289828693</v>
+        <v>0.4187268988858637</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7743872814875529</v>
+        <v>0.7770703461688775</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.541059161953434</v>
+        <v>0.5418542558164519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6985612161089599</v>
+        <v>0.6965621691839925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4118446038272531</v>
+        <v>0.4137852605134167</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2159129307737496</v>
+        <v>0.2194538419077895</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1873754858831335</v>
+        <v>0.1912763887345466</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3856313360175501</v>
+        <v>0.3838816773752816</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2892837348547531</v>
+        <v>0.2899850549080185</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5937339659535928</v>
+        <v>0.6005355588133341</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4242637577662997</v>
+        <v>0.4250095118266884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5847530760909426</v>
+        <v>0.5812038419048737</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3737689703618298</v>
+        <v>0.3766972305686862</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8871579585749073</v>
+        <v>0.8929269450618011</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6700187854348532</v>
+        <v>0.6653776673634817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7862097795575812</v>
+        <v>0.7898299920679898</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4993065601611556</v>
+        <v>0.5032740392528552</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245432149663571</v>
+        <v>0.4251487249888222</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3266998737838837</v>
+        <v>0.3348665494690299</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5137969367327793</v>
+        <v>0.514239068792168</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3668900708151688</v>
+        <v>0.3687421459650743</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7220752061210878</v>
+        <v>0.7273820123045154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.521904274074431</v>
+        <v>0.525363477270794</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6665328933695405</v>
+        <v>0.6643745437738456</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4351451032190043</v>
+        <v>0.4330117408666957</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8565866369544642</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6380459124500764</v>
+        <v>0.6380459124500765</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7379993798150981</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8195960933288314</v>
+        <v>0.8179977323715484</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6273315342160771</v>
+        <v>0.6388965208899154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7433605276563575</v>
+        <v>0.760042514130478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5577079167914787</v>
+        <v>0.5535523232211375</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.584477888072191</v>
+        <v>0.5851055368395562</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4340770276086485</v>
+        <v>0.4150851369132281</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5306883827426511</v>
+        <v>0.542441374134094</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5285652037469181</v>
+        <v>0.5299158905196812</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7531845842834065</v>
+        <v>0.7582337468486147</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5945982330307583</v>
+        <v>0.5914014008935193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6979106337912473</v>
+        <v>0.7032680779309473</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5682870956790751</v>
+        <v>0.569094650922677</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9709793294897384</v>
+        <v>0.9717827956693073</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9081091484282091</v>
+        <v>0.9082096771711491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9278639965894492</v>
+        <v>0.9288746997184754</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7176648709319557</v>
+        <v>0.7076688825868992</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8572815250387379</v>
+        <v>0.8657471524352511</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7626475140122284</v>
+        <v>0.767530887275835</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8007087525519677</v>
+        <v>0.8093114471305886</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6895863474018346</v>
+        <v>0.6931296505795664</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9107690927134796</v>
+        <v>0.9111625908551383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8152789770885808</v>
+        <v>0.811181133048491</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8515548532721464</v>
+        <v>0.8491393121486309</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6822305076560545</v>
+        <v>0.684506814347716</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.6540170566813555</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4258483674883689</v>
+        <v>0.425848367488369</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.734892292685272</v>
+        <v>0.7325890367966862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8076856752703898</v>
+        <v>0.8094708921846487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4910912001611198</v>
+        <v>0.4894127563853232</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.322949729011492</v>
+        <v>0.3214684460173036</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3968250983356199</v>
+        <v>0.3952746197331288</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2973133291584054</v>
+        <v>0.2981591284799835</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5509424714234171</v>
+        <v>0.5491998697303992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.628482704005533</v>
+        <v>0.6289213758158917</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4065997978118286</v>
+        <v>0.4057477468219747</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.797332383864593</v>
+        <v>0.7934729457154617</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8593481686056829</v>
+        <v>0.8588226211848665</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5507517979540265</v>
+        <v>0.552056852112731</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3923586454419031</v>
+        <v>0.3955830558390708</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4698004399264308</v>
+        <v>0.4729818087169266</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3501187899308432</v>
+        <v>0.3486593442743148</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6034240435352881</v>
+        <v>0.6008182701760671</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6774750969807575</v>
+        <v>0.6789259897199863</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4457909193369427</v>
+        <v>0.4456265423000258</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>446810</v>
+        <v>446405</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>443329</v>
+        <v>444229</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>388684</v>
+        <v>388907</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>165376</v>
+        <v>165754</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>147989</v>
+        <v>148645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>178130</v>
+        <v>176825</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>147034</v>
+        <v>145841</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>92348</v>
+        <v>91448</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>597269</v>
+        <v>599619</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>628750</v>
+        <v>629144</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>538972</v>
+        <v>539653</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>263477</v>
+        <v>266783</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>474174</v>
+        <v>473229</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>478454</v>
+        <v>479696</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>412497</v>
+        <v>411430</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>196214</v>
+        <v>197507</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>188795</v>
+        <v>189292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>223890</v>
+        <v>221550</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>191362</v>
+        <v>189224</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>119176</v>
+        <v>119791</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>660066</v>
+        <v>657614</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>696205</v>
+        <v>694385</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>598422</v>
+        <v>597257</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>306953</v>
+        <v>306449</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>129045</v>
+        <v>129493</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>149036</v>
+        <v>149255</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>270719</v>
+        <v>269944</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>176174</v>
+        <v>177004</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18352</v>
+        <v>18653</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31976</v>
+        <v>32642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>99245</v>
+        <v>98794</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>88120</v>
+        <v>88334</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>149405</v>
+        <v>151117</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>189267</v>
+        <v>189599</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>377104</v>
+        <v>374815</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>273741</v>
+        <v>275886</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>147838</v>
+        <v>148799</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>184559</v>
+        <v>183280</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>304686</v>
+        <v>306089</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>213587</v>
+        <v>215284</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>36084</v>
+        <v>36136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>55752</v>
+        <v>57146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>132229</v>
+        <v>132343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>111760</v>
+        <v>112324</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>181701</v>
+        <v>183036</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>232825</v>
+        <v>234368</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>429843</v>
+        <v>428451</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>318692</v>
+        <v>317129</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>49719</v>
+        <v>49622</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28623</v>
+        <v>29150</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>51516</v>
+        <v>52672</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68581</v>
+        <v>68070</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24100</v>
+        <v>24126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15443</v>
+        <v>14767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28008</v>
+        <v>28628</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45284</v>
+        <v>45400</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>76747</v>
+        <v>77262</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>48282</v>
+        <v>48022</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>85200</v>
+        <v>85854</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>118570</v>
+        <v>118738</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58903</v>
+        <v>58951</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>41433</v>
+        <v>41438</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64303</v>
+        <v>64373</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>88251</v>
+        <v>87022</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35349</v>
+        <v>35698</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27132</v>
+        <v>27306</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>42258</v>
+        <v>42712</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>59080</v>
+        <v>59383</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>92805</v>
+        <v>92845</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>66201</v>
+        <v>65869</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>103956</v>
+        <v>103661</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>142343</v>
+        <v>142818</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>639419</v>
+        <v>637415</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>724752</v>
+        <v>726354</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>427999</v>
+        <v>426536</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>239944</v>
+        <v>238843</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>291911</v>
+        <v>290770</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>238254</v>
+        <v>238932</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>888704</v>
+        <v>885893</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1026271</v>
+        <v>1026988</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>680194</v>
+        <v>678769</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>693748</v>
+        <v>690390</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>771109</v>
+        <v>770638</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>479995</v>
+        <v>481132</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>291513</v>
+        <v>293909</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>345593</v>
+        <v>347933</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>280570</v>
+        <v>279401</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>973360</v>
+        <v>969157</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1106273</v>
+        <v>1108642</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>745756</v>
+        <v>745482</v>
       </c>
     </row>
     <row r="20">
